--- a/results/casp_day_bin_results.xlsx
+++ b/results/casp_day_bin_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="casp_aridity_gradient_tukey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="504">
   <si>
     <t xml:space="preserve"> contrast</t>
   </si>
@@ -624,7 +624,7 @@
     <t xml:space="preserve">5:kiowa-4:kiowa</t>
   </si>
   <si>
-    <t xml:space="preserve">       diff</t>
+    <t xml:space="preserve">         diff</t>
   </si>
   <si>
     <t xml:space="preserve">         lwr</t>
@@ -771,10 +771,10 @@
     <t xml:space="preserve">5.2.1-2.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.0-3.1.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.0-3.1.0 -</t>
+    <t xml:space="preserve">4.1.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.0-3.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.2.0-3.1.0</t>
@@ -792,19 +792,19 @@
     <t xml:space="preserve">5.2.0-3.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.0-3.1.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.0-3.1.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.0-3.1.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.0-3.1.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.0-3.1.0 -</t>
+    <t xml:space="preserve">1.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.0-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0-3.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-3.1.0</t>
@@ -855,7 +855,7 @@
     <t xml:space="preserve">5.2.0-4.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.0-4.1.0 -</t>
+    <t xml:space="preserve">1.3.0-4.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">2.3.0-4.1.0</t>
@@ -867,7 +867,7 @@
     <t xml:space="preserve">4.3.0-4.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.0-4.1.0 -</t>
+    <t xml:space="preserve">5.3.0-4.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-4.1.0</t>
@@ -915,19 +915,19 @@
     <t xml:space="preserve">5.2.0-5.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.0-5.1.0 -</t>
+    <t xml:space="preserve">1.3.0-5.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">2.3.0-5.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3.0-5.1.0 -</t>
+    <t xml:space="preserve">3.3.0-5.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.0-5.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.0-5.1.0 -</t>
+    <t xml:space="preserve">5.3.0-5.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-5.1.0</t>
@@ -966,25 +966,25 @@
     <t xml:space="preserve">3.2.0-1.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.0-1.2.0 -</t>
+    <t xml:space="preserve">4.2.0-1.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.0-1.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.0-1.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.0-1.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.0-1.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.0-1.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.0-1.2.0 -</t>
+    <t xml:space="preserve">1.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.0-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0-1.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-1.2.0</t>
@@ -1002,7 +1002,7 @@
     <t xml:space="preserve">5.1.1-1.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1-1.2.0 -</t>
+    <t xml:space="preserve">1.2.1-1.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.1-1.2.0</t>
@@ -1014,31 +1014,31 @@
     <t xml:space="preserve">4.2.1-1.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1-1.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.0-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.0-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.0-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.0-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.0-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.0-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.0-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.0-2.2.0 -</t>
+    <t xml:space="preserve">5.2.1-1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.0-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0-2.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-2.2.0</t>
@@ -1056,40 +1056,40 @@
     <t xml:space="preserve">5.1.1-2.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-2.2.0 -</t>
+    <t xml:space="preserve">1.2.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-2.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1-2.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1-2.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.0-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.0-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.0-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.0-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.0-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.0-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.0-3.2.0 -</t>
+    <t xml:space="preserve">5.2.1-2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.0-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0-3.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-3.2.0</t>
@@ -1107,37 +1107,37 @@
     <t xml:space="preserve">5.1.1-3.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-3.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-3.2.0 -</t>
+    <t xml:space="preserve">1.2.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-3.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-3.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1-3.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1-3.2.0 -</t>
+    <t xml:space="preserve">5.2.1-3.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.0-4.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.0-4.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.0-4.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.0-4.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.0-4.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.0-4.2.0 -</t>
+    <t xml:space="preserve">1.3.0-4.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-4.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-4.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.0-4.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0-4.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-4.2.0</t>
@@ -1155,7 +1155,7 @@
     <t xml:space="preserve">5.1.1-4.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1-4.2.0 -</t>
+    <t xml:space="preserve">1.2.1-4.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.1-4.2.0</t>
@@ -1170,19 +1170,19 @@
     <t xml:space="preserve">5.2.1-4.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.0-5.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.0-5.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.0-5.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.0-5.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.0-5.2.0 -</t>
+    <t xml:space="preserve">1.3.0-5.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0-5.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.0-5.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.0-5.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0-5.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-5.2.0</t>
@@ -1200,19 +1200,19 @@
     <t xml:space="preserve">5.1.1-5.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1-5.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-5.2.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-5.2.0 -</t>
+    <t xml:space="preserve">1.2.1-5.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-5.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-5.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1-5.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1-5.2.0 -</t>
+    <t xml:space="preserve">5.2.1-5.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">2.3.0-1.3.0</t>
@@ -1224,7 +1224,7 @@
     <t xml:space="preserve">4.3.0-1.3.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.0-1.3.0 -</t>
+    <t xml:space="preserve">5.3.0-1.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-1.3.0</t>
@@ -1257,13 +1257,13 @@
     <t xml:space="preserve">5.2.1-1.3.0</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3.0-2.3.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.0-2.3.0 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.0-2.3.0 -</t>
+    <t xml:space="preserve">3.3.0-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.0-2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0-2.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-2.3.0</t>
@@ -1299,7 +1299,7 @@
     <t xml:space="preserve">4.3.0-3.3.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.0-3.3.0 -</t>
+    <t xml:space="preserve">5.3.0-3.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-3.3.0</t>
@@ -1332,7 +1332,7 @@
     <t xml:space="preserve">5.2.1-3.3.0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.0-4.3.0 -</t>
+    <t xml:space="preserve">5.3.0-4.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1-4.3.0</t>
@@ -1395,109 +1395,109 @@
     <t xml:space="preserve">5.2.1-5.3.0</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-1.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1-2.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1-2.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1-2.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-2.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-2.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-2.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-2.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-2.1.1 -</t>
+    <t xml:space="preserve">2.1.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.1-1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1-2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.1-2.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">4.1.1-3.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1-3.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-3.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-3.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-3.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-3.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-3.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1-4.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-4.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-4.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-4.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-4.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-4.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-5.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-5.1.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-5.1.1 -</t>
+    <t xml:space="preserve">5.1.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.1-3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1-4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1-4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.1-4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1-5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1-5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-5.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1-5.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1-5.1.1 -</t>
+    <t xml:space="preserve">5.2.1-5.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.1-1.2.1</t>
@@ -1512,145 +1512,28 @@
     <t xml:space="preserve">5.2.1-1.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1-2.2.1 -</t>
+    <t xml:space="preserve">3.2.1-2.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1-2.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1-2.2.1 -</t>
+    <t xml:space="preserve">5.2.1-2.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1-3.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1-3.2.1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-4.2.1 -</t>
+    <t xml:space="preserve">5.2.1-3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.1-4.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">        diff</t>
   </si>
   <si>
     <t xml:space="preserve">         upr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.0-3.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.0-3.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1-3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1-4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1-4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1-5.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1-5.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-5.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-5.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1-2.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-2.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1-4.2.1</t>
   </si>
 </sst>
 </file>
@@ -1754,13 +1637,13 @@
   </sheetPr>
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A181" activeCellId="0" sqref="A181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,13 +5128,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A286" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A261" activeCellId="0" sqref="A261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5269,6 +5152,9 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -5524,6 +5410,9 @@
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F16" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -5541,6 +5430,9 @@
       <c r="E17" s="0" t="n">
         <v>4E-007</v>
       </c>
+      <c r="F17" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -5558,6 +5450,9 @@
       <c r="E18" s="0" t="n">
         <v>0.0104498</v>
       </c>
+      <c r="F18" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -5575,6 +5470,9 @@
       <c r="E19" s="0" t="n">
         <v>0.0001498</v>
       </c>
+      <c r="F19" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -5592,6 +5490,9 @@
       <c r="E20" s="0" t="n">
         <v>0.000149</v>
       </c>
+      <c r="F20" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -5915,6 +5816,9 @@
       <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F39" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -5932,6 +5836,9 @@
       <c r="E40" s="0" t="n">
         <v>7.13E-005</v>
       </c>
+      <c r="F40" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -5966,6 +5873,9 @@
       <c r="E42" s="0" t="n">
         <v>0.0096568</v>
       </c>
+      <c r="F42" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -5983,6 +5893,9 @@
       <c r="E43" s="0" t="n">
         <v>0.0264922</v>
       </c>
+      <c r="F43" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -6074,7 +5987,7 @@
         <v>249</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.601704114</v>
+        <v>-0.601704114</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>-3.00327658</v>
@@ -6091,7 +6004,7 @@
         <v>250</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.523296438</v>
+        <v>-0.523296438</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>-2.71065524</v>
@@ -6193,7 +6106,7 @@
         <v>256</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.613279935</v>
+        <v>-0.613279935</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>-2.62948222</v>
@@ -6210,7 +6123,7 @@
         <v>257</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.291279403</v>
+        <v>-0.291279403</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>-2.72203109</v>
@@ -6227,7 +6140,7 @@
         <v>258</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.545832453</v>
+        <v>-0.545832453</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>-3.09602643</v>
@@ -6244,7 +6157,7 @@
         <v>259</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.358995303</v>
+        <v>-0.358995303</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>-2.7298959</v>
@@ -6261,7 +6174,7 @@
         <v>260</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.67772629</v>
+        <v>-0.67772629</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>-2.84673558</v>
@@ -6289,6 +6202,9 @@
       <c r="E61" s="0" t="n">
         <v>1.13E-005</v>
       </c>
+      <c r="F61" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -6306,6 +6222,9 @@
       <c r="E62" s="0" t="n">
         <v>0.0416854</v>
       </c>
+      <c r="F62" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -6550,7 +6469,7 @@
         <v>277</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.011575822</v>
+        <v>-0.011575822</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>-1.80953069</v>
@@ -6618,7 +6537,7 @@
         <v>281</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.076022176</v>
+        <v>-0.076022176</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>-2.04380554</v>
@@ -6646,6 +6565,9 @@
       <c r="E82" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F82" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -6663,6 +6585,9 @@
       <c r="E83" s="0" t="n">
         <v>0.0011258</v>
       </c>
+      <c r="F83" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -6697,6 +6622,9 @@
       <c r="E85" s="0" t="n">
         <v>0.0835542</v>
       </c>
+      <c r="F85" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -6890,7 +6818,7 @@
         <v>297</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.089983498</v>
+        <v>-0.089983498</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>-1.58986013</v>
@@ -6924,7 +6852,7 @@
         <v>299</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.022536015</v>
+        <v>-0.022536015</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>-2.18772598</v>
@@ -6958,7 +6886,7 @@
         <v>301</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.154429852</v>
+        <v>-0.154429852</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>-1.85418265</v>
@@ -6986,6 +6914,9 @@
       <c r="E102" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F102" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -7003,6 +6934,9 @@
       <c r="E103" s="0" t="n">
         <v>0.0005075</v>
       </c>
+      <c r="F103" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
@@ -7037,6 +6971,9 @@
       <c r="E105" s="0" t="n">
         <v>0.0560097</v>
       </c>
+      <c r="F105" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
@@ -7179,7 +7116,7 @@
         <v>314</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.215458449</v>
+        <v>-0.215458449</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>-4.67919813</v>
@@ -7213,7 +7150,7 @@
         <v>316</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1.474782018</v>
+        <v>-1.474782018</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>-3.90062051</v>
@@ -7230,7 +7167,7 @@
         <v>317</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1.152781486</v>
+        <v>-1.152781486</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>-3.93274093</v>
@@ -7247,7 +7184,7 @@
         <v>318</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1.407334536</v>
+        <v>-1.407334536</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>-4.29231461</v>
@@ -7264,7 +7201,7 @@
         <v>319</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1.220497386</v>
+        <v>-1.220497386</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>-3.9482786</v>
@@ -7281,7 +7218,7 @@
         <v>320</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>1.539228373</v>
+        <v>-1.539228373</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>-4.09348405</v>
@@ -7309,6 +7246,9 @@
       <c r="E121" s="0" t="n">
         <v>0.076938</v>
       </c>
+      <c r="F121" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
@@ -7383,7 +7323,7 @@
         <v>326</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.62333816</v>
+        <v>-0.62333816</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>-3.61956008</v>
@@ -7451,7 +7391,7 @@
         <v>330</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.139228373</v>
+        <v>-0.139228373</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>-3.62386132</v>
@@ -7468,7 +7408,7 @@
         <v>331</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.083333333</v>
+        <v>-0.083333333</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>-6.23346931</v>
@@ -7485,7 +7425,7 @@
         <v>332</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0.81981982</v>
+        <v>-0.81981982</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>-6.57006386</v>
@@ -7502,7 +7442,7 @@
         <v>333</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.092592593</v>
+        <v>-0.092592593</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>-5.42216664</v>
@@ -7519,7 +7459,7 @@
         <v>334</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2.079143389</v>
+        <v>-2.079143389</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>-6.44091217</v>
@@ -7536,7 +7476,7 @@
         <v>335</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1.757142857</v>
+        <v>-1.757142857</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>-6.32534918</v>
@@ -7553,7 +7493,7 @@
         <v>336</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>2.011695906</v>
+        <v>-2.011695906</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>-6.6445616</v>
@@ -7570,7 +7510,7 @@
         <v>337</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1.824858757</v>
+        <v>-1.824858757</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>-6.36150123</v>
@@ -7587,7 +7527,7 @@
         <v>338</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>2.143589744</v>
+        <v>-2.143589744</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>-6.5780634</v>
@@ -7689,7 +7629,7 @@
         <v>344</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1.227699531</v>
+        <v>-1.227699531</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>-5.93064332</v>
@@ -7706,7 +7646,7 @@
         <v>345</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0.235772358</v>
+        <v>-0.235772358</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>-5.85901706</v>
@@ -7723,7 +7663,7 @@
         <v>346</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>0.515151515</v>
+        <v>-0.515151515</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>-6.41937845</v>
@@ -7757,7 +7697,7 @@
         <v>348</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>0.743589744</v>
+        <v>-0.743589744</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>-5.77181023</v>
@@ -7774,7 +7714,7 @@
         <v>349</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0.736486486</v>
+        <v>-0.736486486</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>-6.59904466</v>
@@ -7791,7 +7731,7 @@
         <v>350</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>0.009259259</v>
+        <v>-0.009259259</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>-5.45982265</v>
@@ -7808,7 +7748,7 @@
         <v>351</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>1.995810056</v>
+        <v>-1.995810056</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>-6.50461352</v>
@@ -7825,7 +7765,7 @@
         <v>352</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1.673809524</v>
+        <v>-1.673809524</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>-6.38260882</v>
@@ -7842,7 +7782,7 @@
         <v>353</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>1.928362573</v>
+        <v>-1.928362573</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>-6.69991645</v>
@@ -7859,7 +7799,7 @@
         <v>354</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>1.741525424</v>
+        <v>-1.741525424</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>-6.41970955</v>
@@ -7876,7 +7816,7 @@
         <v>355</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>2.06025641</v>
+        <v>-2.06025641</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>-6.63943083</v>
@@ -7978,7 +7918,7 @@
         <v>361</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>1.144366197</v>
+        <v>-1.144366197</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>-5.98399037</v>
@@ -7995,7 +7935,7 @@
         <v>362</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>0.152439024</v>
+        <v>-0.152439024</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>-5.89048424</v>
@@ -8012,7 +7952,7 @@
         <v>363</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0.431818182</v>
+        <v>-0.431818182</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>-6.44548408</v>
@@ -8046,7 +7986,7 @@
         <v>365</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0.66025641</v>
+        <v>-0.66025641</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>-5.8165422</v>
@@ -8080,7 +8020,7 @@
         <v>367</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1.259323569</v>
+        <v>-1.259323569</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>-5.20526359</v>
@@ -8097,7 +8037,7 @@
         <v>368</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>0.937323037</v>
+        <v>-0.937323037</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>-5.11032253</v>
@@ -8114,7 +8054,7 @@
         <v>369</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>1.191876087</v>
+        <v>-1.191876087</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>-5.43556084</v>
@@ -8131,7 +8071,7 @@
         <v>370</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>1.005038937</v>
+        <v>-1.005038937</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>-5.14346142</v>
@@ -8148,7 +8088,7 @@
         <v>371</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>1.323769924</v>
+        <v>-1.323769924</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>-5.34993091</v>
@@ -8250,7 +8190,7 @@
         <v>377</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>0.407879711</v>
+        <v>-0.407879711</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>-4.72796027</v>
@@ -8335,7 +8275,7 @@
         <v>382</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>1.986550797</v>
+        <v>-1.986550797</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>-5.28950336</v>
@@ -8352,7 +8292,7 @@
         <v>383</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>1.664550265</v>
+        <v>-1.664550265</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>-5.23568142</v>
@@ -8369,7 +8309,7 @@
         <v>384</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>1.919103314</v>
+        <v>-1.919103314</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>-5.57258293</v>
@@ -8386,7 +8326,7 @@
         <v>385</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>1.732266164</v>
+        <v>-1.732266164</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>-5.26293092</v>
@@ -8403,7 +8343,7 @@
         <v>386</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2.050997151</v>
+        <v>-2.050997151</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>-5.44938284</v>
@@ -8505,7 +8445,7 @@
         <v>392</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>1.135106938</v>
+        <v>-1.135106938</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>-4.87705149</v>
@@ -8522,7 +8462,7 @@
         <v>393</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>0.143179765</v>
+        <v>-0.143179765</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>-4.99141138</v>
@@ -8539,7 +8479,7 @@
         <v>394</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0.422558923</v>
+        <v>-0.422558923</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>-5.5940543</v>
@@ -8573,7 +8513,7 @@
         <v>396</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>0.650997151</v>
+        <v>-0.650997151</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>-4.79436173</v>
@@ -8641,7 +8581,7 @@
         <v>400</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0.064446354</v>
+        <v>-0.064446354</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>-1.53743403</v>
@@ -8669,6 +8609,9 @@
       <c r="E201" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F201" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
@@ -8686,6 +8629,9 @@
       <c r="E202" s="0" t="n">
         <v>8.98E-005</v>
       </c>
+      <c r="F202" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
@@ -8720,6 +8666,9 @@
       <c r="E204" s="0" t="n">
         <v>0.0175933</v>
       </c>
+      <c r="F204" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
@@ -8737,6 +8686,9 @@
       <c r="E205" s="0" t="n">
         <v>0.0393379</v>
       </c>
+      <c r="F205" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
@@ -8828,7 +8780,7 @@
         <v>411</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>0.254553049</v>
+        <v>-0.254553049</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>-2.66537507</v>
@@ -8845,7 +8797,7 @@
         <v>412</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>0.0677159</v>
+        <v>-0.0677159</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>-2.28801838</v>
@@ -8862,7 +8814,7 @@
         <v>413</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>0.386446886</v>
+        <v>-0.386446886</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>-2.38973788</v>
@@ -8890,6 +8842,9 @@
       <c r="E214" s="0" t="n">
         <v>1E-007</v>
       </c>
+      <c r="F214" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
@@ -8907,6 +8862,9 @@
       <c r="E215" s="0" t="n">
         <v>0.0066791</v>
       </c>
+      <c r="F215" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
@@ -9066,7 +9024,7 @@
         <v>425</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>0.131893837</v>
+        <v>-0.131893837</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>-2.2785448</v>
@@ -9094,6 +9052,9 @@
       <c r="E226" s="0" t="n">
         <v>1E-007</v>
       </c>
+      <c r="F226" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
@@ -9111,6 +9072,9 @@
       <c r="E227" s="0" t="n">
         <v>0.0032896</v>
       </c>
+      <c r="F227" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
@@ -9253,7 +9217,7 @@
         <v>436</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>0.318730987</v>
+        <v>-0.318730987</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>-2.24896172</v>
@@ -9281,6 +9245,9 @@
       <c r="E237" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F237" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
@@ -9298,6 +9265,9 @@
       <c r="E238" s="0" t="n">
         <v>0.0035685</v>
       </c>
+      <c r="F238" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
@@ -9451,6 +9421,9 @@
       <c r="E247" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F247" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
@@ -9468,6 +9441,9 @@
       <c r="E248" s="0" t="n">
         <v>0.0001694</v>
       </c>
+      <c r="F248" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
@@ -9502,6 +9478,9 @@
       <c r="E250" s="0" t="n">
         <v>0.0249867</v>
       </c>
+      <c r="F250" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
@@ -9519,6 +9498,9 @@
       <c r="E251" s="0" t="n">
         <v>0.063113</v>
       </c>
+      <c r="F251" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
@@ -9610,7 +9592,7 @@
         <v>457</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>0.187415588</v>
+        <v>-0.187415588</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>-3.09685321</v>
@@ -9627,7 +9609,7 @@
         <v>458</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>1.557883617</v>
+        <v>-1.557883617</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>-4.58889666</v>
@@ -9644,7 +9626,7 @@
         <v>459</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>1.270895598</v>
+        <v>-1.270895598</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>-3.99702202</v>
@@ -9661,7 +9643,7 @@
         <v>460</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>1.881501352</v>
+        <v>-1.881501352</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>-4.19769239</v>
@@ -9678,7 +9660,7 @@
         <v>461</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>3.154952516</v>
+        <v>-3.154952516</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>-5.53026185</v>
@@ -9688,6 +9670,9 @@
       </c>
       <c r="E261" s="0" t="n">
         <v>0.0003358</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9695,7 +9680,7 @@
         <v>462</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>2.163025344</v>
+        <v>-2.163025344</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>-6.05472101</v>
@@ -9712,7 +9697,7 @@
         <v>463</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>2.442404501</v>
+        <v>-2.442404501</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>-6.73009733</v>
@@ -9729,7 +9714,7 @@
         <v>464</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>1.651890667</v>
+        <v>-1.651890667</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>-5.35229869</v>
@@ -9746,7 +9731,7 @@
         <v>465</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>2.670842729</v>
+        <v>-2.670842729</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>-5.63857173</v>
@@ -9763,7 +9748,7 @@
         <v>466</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>1.370468029</v>
+        <v>-1.370468029</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>-5.12322014</v>
@@ -9780,7 +9765,7 @@
         <v>467</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>1.08348001</v>
+        <v>-1.08348001</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>-4.59458719</v>
@@ -9797,7 +9782,7 @@
         <v>468</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>1.694085764</v>
+        <v>-1.694085764</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>-4.89734181</v>
@@ -9814,7 +9799,7 @@
         <v>469</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>2.967536929</v>
+        <v>-2.967536929</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>-6.21379674</v>
@@ -9831,7 +9816,7 @@
         <v>470</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>1.975609756</v>
+        <v>-1.975609756</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>-6.45237237</v>
@@ -9848,7 +9833,7 @@
         <v>471</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>2.254988914</v>
+        <v>-2.254988914</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>-7.07996748</v>
@@ -9865,7 +9850,7 @@
         <v>472</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>1.46447508</v>
+        <v>-1.46447508</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>-5.77598617</v>
@@ -9882,7 +9867,7 @@
         <v>473</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>2.483427142</v>
+        <v>-2.483427142</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>-6.18525422</v>
@@ -9916,7 +9901,7 @@
         <v>475</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>0.323617735</v>
+        <v>-0.323617735</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>-3.63768804</v>
@@ -9933,7 +9918,7 @@
         <v>476</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>1.5970689</v>
+        <v>-1.5970689</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>-4.95272316</v>
@@ -9950,7 +9935,7 @@
         <v>477</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>0.605141727</v>
+        <v>-0.605141727</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>-5.16185284</v>
@@ -9967,7 +9952,7 @@
         <v>478</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>0.884520885</v>
+        <v>-0.884520885</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>-5.78376888</v>
@@ -9984,7 +9969,7 @@
         <v>479</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>0.094007051</v>
+        <v>-0.094007051</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>-4.48847409</v>
@@ -10001,7 +9986,7 @@
         <v>480</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>1.112959113</v>
+        <v>-1.112959113</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>-4.91108187</v>
@@ -10018,7 +10003,7 @@
         <v>481</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>0.610605754</v>
+        <v>-0.610605754</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>-3.64833307</v>
@@ -10035,7 +10020,7 @@
         <v>482</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>1.884056919</v>
+        <v>-1.884056919</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>-4.96709774</v>
@@ -10052,7 +10037,7 @@
         <v>483</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>0.892129746</v>
+        <v>-0.892129746</v>
       </c>
       <c r="C283" s="0" t="n">
         <v>-5.25198541</v>
@@ -10069,7 +10054,7 @@
         <v>484</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>1.171508903</v>
+        <v>-1.171508903</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>-5.88821921</v>
@@ -10086,7 +10071,7 @@
         <v>485</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>0.380995069</v>
+        <v>-0.380995069</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>-4.57099099</v>
@@ -10103,7 +10088,7 @@
         <v>486</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>1.399947132</v>
+        <v>-1.399947132</v>
       </c>
       <c r="C286" s="0" t="n">
         <v>-4.95950633</v>
@@ -10120,7 +10105,7 @@
         <v>487</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>1.273451165</v>
+        <v>-1.273451165</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>-4.0007422</v>
@@ -10137,7 +10122,7 @@
         <v>488</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>0.281523992</v>
+        <v>-0.281523992</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>-4.39750712</v>
@@ -10154,7 +10139,7 @@
         <v>489</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>0.560903149</v>
+        <v>-0.560903149</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>-5.05315557</v>
@@ -10188,7 +10173,7 @@
         <v>491</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>0.789341378</v>
+        <v>-0.789341378</v>
       </c>
       <c r="C291" s="0" t="n">
         <v>-4.04563334</v>
@@ -10273,7 +10258,7 @@
         <v>496</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>0.279379157</v>
+        <v>-0.279379157</v>
       </c>
       <c r="C296" s="0" t="n">
         <v>-5.75303296</v>
@@ -10307,7 +10292,7 @@
         <v>498</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>0.507817386</v>
+        <v>-0.507817386</v>
       </c>
       <c r="C298" s="0" t="n">
         <v>-5.02268079</v>
@@ -10341,7 +10326,7 @@
         <v>500</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>0.228438228</v>
+        <v>-0.228438228</v>
       </c>
       <c r="C300" s="0" t="n">
         <v>-5.08878865</v>
@@ -10358,7 +10343,7 @@
         <v>501</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>1.018952062</v>
+        <v>-1.018952062</v>
       </c>
       <c r="C301" s="0" t="n">
         <v>-5.37001124</v>
@@ -10386,13 +10371,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -10410,6 +10395,9 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -10478,6 +10466,9 @@
       <c r="E5" s="0" t="n">
         <v>0.0249353</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -10495,6 +10486,9 @@
       <c r="E6" s="0" t="n">
         <v>0.0157237</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -10580,6 +10574,9 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -10597,6 +10594,9 @@
       <c r="E12" s="0" t="n">
         <v>0.0009609</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -10801,6 +10801,9 @@
       <c r="E24" s="0" t="n">
         <v>3.81E-005</v>
       </c>
+      <c r="F24" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -10818,6 +10821,9 @@
       <c r="E25" s="0" t="n">
         <v>0.0039798</v>
       </c>
+      <c r="F25" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -10872,7 +10878,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>504</v>
+        <v>249</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>-4.8965517</v>
@@ -10889,7 +10895,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>505</v>
+        <v>250</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-7.9384615</v>
@@ -10920,6 +10926,9 @@
       <c r="E31" s="0" t="n">
         <v>0.0365428</v>
       </c>
+      <c r="F31" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -11005,6 +11014,9 @@
       <c r="E36" s="0" t="n">
         <v>5.91E-005</v>
       </c>
+      <c r="F36" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -11022,6 +11034,9 @@
       <c r="E37" s="0" t="n">
         <v>0.0023639</v>
       </c>
+      <c r="F37" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -11039,6 +11054,9 @@
       <c r="E38" s="0" t="n">
         <v>0.0478621</v>
       </c>
+      <c r="F38" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -11107,6 +11125,9 @@
       <c r="E42" s="0" t="n">
         <v>0.0003627</v>
       </c>
+      <c r="F42" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -11192,6 +11213,9 @@
       <c r="E47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F47" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -11209,6 +11233,9 @@
       <c r="E48" s="0" t="n">
         <v>1.63E-005</v>
       </c>
+      <c r="F48" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -11226,6 +11253,9 @@
       <c r="E49" s="0" t="n">
         <v>0.0014988</v>
       </c>
+      <c r="F49" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -11277,6 +11307,9 @@
       <c r="E52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F52" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -11294,6 +11327,9 @@
       <c r="E53" s="0" t="n">
         <v>0.0342117</v>
       </c>
+      <c r="F53" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -11311,6 +11347,9 @@
       <c r="E54" s="0" t="n">
         <v>0.0031204</v>
       </c>
+      <c r="F54" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -11328,6 +11367,9 @@
       <c r="E55" s="0" t="n">
         <v>0.0105726</v>
       </c>
+      <c r="F55" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -11362,6 +11404,9 @@
       <c r="E57" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F57" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -11379,6 +11424,9 @@
       <c r="E58" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F58" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -11396,6 +11444,9 @@
       <c r="E59" s="0" t="n">
         <v>4E-007</v>
       </c>
+      <c r="F59" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -11413,6 +11464,9 @@
       <c r="E60" s="0" t="n">
         <v>0.0045731</v>
       </c>
+      <c r="F60" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -11430,10 +11484,13 @@
       <c r="E61" s="0" t="n">
         <v>0.0354349</v>
       </c>
+      <c r="F61" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>-13.9641772</v>
@@ -11447,10 +11504,13 @@
       <c r="E62" s="0" t="n">
         <v>0.0453279</v>
       </c>
+      <c r="F62" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>-8.9727979</v>
@@ -11467,7 +11527,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>-11.012653</v>
@@ -11484,7 +11544,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>-18.1870836</v>
@@ -11498,10 +11558,13 @@
       <c r="E65" s="0" t="n">
         <v>1.29E-005</v>
       </c>
+      <c r="F65" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>11.1840847</v>
@@ -11515,10 +11578,13 @@
       <c r="E66" s="0" t="n">
         <v>0.0094588</v>
       </c>
+      <c r="F66" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>8.5772021</v>
@@ -11535,7 +11601,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>3.0734984</v>
@@ -11552,7 +11618,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>-8.6087628</v>
@@ -11569,7 +11635,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>-15.2472877</v>
@@ -11583,10 +11649,13 @@
       <c r="E70" s="0" t="n">
         <v>0.0021279</v>
       </c>
+      <c r="F70" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>4.9913793</v>
@@ -11603,7 +11672,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2.9515242</v>
@@ -11620,7 +11689,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>-4.2229064</v>
@@ -11637,7 +11706,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>25.1482619</v>
@@ -11651,10 +11720,13 @@
       <c r="E74" s="0" t="n">
         <v>2E-007</v>
       </c>
+      <c r="F74" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>22.5413793</v>
@@ -11668,10 +11740,13 @@
       <c r="E75" s="0" t="n">
         <v>0.0024375</v>
       </c>
+      <c r="F75" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>17.0376756</v>
@@ -11688,7 +11763,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>5.3554144</v>
@@ -11705,7 +11780,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>-1.2831105</v>
@@ -11739,7 +11814,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>-9.2142857</v>
@@ -11756,7 +11831,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>20.1568826</v>
@@ -11770,10 +11845,13 @@
       <c r="E81" s="0" t="n">
         <v>0.0012657</v>
       </c>
+      <c r="F81" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>17.55</v>
@@ -11790,7 +11868,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>12.0462963</v>
@@ -11807,7 +11885,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0.3640351</v>
@@ -11824,7 +11902,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>-6.2744898</v>
@@ -11841,7 +11919,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>-7.1744306</v>
@@ -11858,7 +11936,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>22.1967377</v>
@@ -11872,10 +11950,13 @@
       <c r="E87" s="0" t="n">
         <v>0.0001078</v>
       </c>
+      <c r="F87" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>19.5898551</v>
@@ -11889,10 +11970,13 @@
       <c r="E88" s="0" t="n">
         <v>0.0401132</v>
       </c>
+      <c r="F88" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>14.0861514</v>
@@ -11909,7 +11993,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2.4038902</v>
@@ -11926,7 +12010,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>-4.2346347</v>
@@ -11943,7 +12027,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>535</v>
+        <v>487</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>29.3711683</v>
@@ -11957,10 +12041,13 @@
       <c r="E92" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F92" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>536</v>
+        <v>488</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>26.7642857</v>
@@ -11974,10 +12061,13 @@
       <c r="E93" s="0" t="n">
         <v>4.7E-006</v>
       </c>
+      <c r="F93" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>537</v>
+        <v>489</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>21.260582</v>
@@ -11990,6 +12080,9 @@
       </c>
       <c r="E94" s="0" t="n">
         <v>0.0062277</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12011,7 +12104,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2.9397959</v>
@@ -12076,6 +12169,9 @@
       <c r="E99" s="0" t="n">
         <v>0.0049203</v>
       </c>
+      <c r="F99" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -12093,10 +12189,13 @@
       <c r="E100" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F100" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>-5.5037037</v>
@@ -12130,7 +12229,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>-23.8244898</v>
@@ -12143,6 +12242,9 @@
       </c>
       <c r="E103" s="0" t="n">
         <v>0.0001941</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12164,7 +12266,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>-18.3207861</v>
@@ -12178,10 +12280,13 @@
       <c r="E105" s="0" t="n">
         <v>0.0550383</v>
       </c>
+      <c r="F105" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>-6.6385249</v>
